--- a/Parâmetros.WASP101b.xlsx
+++ b/Parâmetros.WASP101b.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA920E8-8355-4533-A629-EE42782A40D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D13CA-B6B1-4A1F-BB5E-4854FF626802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <v>0.1</v>

--- a/Parâmetros.WASP101b.xlsx
+++ b/Parâmetros.WASP101b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\PycharmProjects\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D13CA-B6B1-4A1F-BB5E-4854FF626802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F0CB8-7B2C-407A-923A-EDB935B074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>raio</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>timeInterval = digite o intervalo de tempo em minutos (n° inteiro)</t>
+  </si>
+  <si>
+    <t>plotGrafico</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,29 +207,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,7 +354,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -385,57 +371,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Nota" xfId="3" builtinId="10"/>
+    <cellStyle name="Saída" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,7 +440,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -747,62 +736,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -811,106 +800,112 @@
       <c r="M1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="X1" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B2" s="8">
         <v>1000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>5000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>2050</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>1.31</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>0.1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>0</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>0.2</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="16">
         <v>2</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="16">
         <v>5.0560000000000001E-2</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="17">
         <v>1.41</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="17">
         <v>1.43</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="17">
         <v>0.51</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="17">
         <v>8.6669999999999998</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="18">
         <v>85</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="19">
         <v>0</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="19">
         <v>0</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="19">
         <v>0</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="20">
         <v>2.7071999999999998</v>
       </c>
-      <c r="W2" s="19">
+      <c r="W2" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -918,9 +913,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -933,7 +928,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -941,9 +936,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -956,7 +951,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -964,9 +959,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -979,7 +974,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -987,9 +982,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1002,7 +997,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1010,9 +1005,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1025,7 +1020,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1033,9 +1028,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1048,7 +1043,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1056,9 +1051,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1071,7 +1066,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1079,9 +1074,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1094,7 +1089,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1102,9 +1097,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1117,7 +1112,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1125,111 +1120,111 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>

--- a/Parâmetros.WASP101b.xlsx
+++ b/Parâmetros.WASP101b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\StarsAndExoplanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F0CB8-7B2C-407A-923A-EDB935B074E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1206D3D-FD4A-4838-A924-1148B8330DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -421,10 +413,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="3" builtinId="10"/>
-    <cellStyle name="Saída" xfId="2" builtinId="21"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -738,32 +730,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64130676-9D84-4B43-9CC6-731DFC23A473}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -834,7 +827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
         <v>1000</v>
       </c>
@@ -896,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="20">
-        <v>2.7071999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="W2" s="21">
         <v>0</v>
@@ -905,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -928,7 +921,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -951,7 +944,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -974,7 +967,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -997,7 +990,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1020,7 +1013,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1043,7 +1036,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1066,7 +1059,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1089,7 +1082,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1112,7 +1105,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1124,107 +1117,107 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>

--- a/Parâmetros.WASP101b.xlsx
+++ b/Parâmetros.WASP101b.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1206D3D-FD4A-4838-A924-1148B8330DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5822194B-DD82-4EA5-8774-7A5139D9E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{135A0AB5-F6C2-44B6-B5E2-B976BC3DCBD2}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
         <v>0.51</v>
       </c>
       <c r="Q2" s="17">
-        <v>8.6669999999999998</v>
+        <v>3.5857199999999998</v>
       </c>
       <c r="R2" s="18">
         <v>85</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="20">
-        <v>2.7</v>
+        <v>3.5857199999999998</v>
       </c>
       <c r="W2" s="21">
         <v>0</v>
